--- a/Data_file/import_bill_AP.xlsx
+++ b/Data_file/import_bill_AP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="80">
   <si>
     <t>invoice_date</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>AP-SETUP</t>
+  </si>
+  <si>
+    <t>CB00000550</t>
   </si>
 </sst>
 </file>
@@ -1853,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2625"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -2114,7 +2117,7 @@
         <v>45292</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="8" t="s">
